--- a/models/best_final/nlp_classifier_model_model_layers.xlsx
+++ b/models/best_final/nlp_classifier_model_model_layers.xlsx
@@ -379,7 +379,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:E87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -422,8 +422,8 @@
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>embedding_14 
-(61 words, 300)</t>
+          <t>embedding_1 
+(35 words, 300)</t>
         </is>
       </c>
       <c r="C2" s="1" t="inlineStr">
@@ -490,7 +490,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>(None, 61)</t>
+          <t>(None, 35)</t>
         </is>
       </c>
     </row>
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>12155</v>
+        <v>5240</v>
       </c>
     </row>
     <row r="11">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>61</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12">
@@ -599,29 +599,25 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>1: LSTM</t>
+          <t>1: SpatialDropout1D</t>
         </is>
       </c>
       <c r="B15" s="1" t="inlineStr">
         <is>
-          <t>lstm_18 (200 units)</t>
+          <t>spatial_dropout1d_1</t>
         </is>
       </c>
       <c r="C15" s="1" t="inlineStr">
         <is>
-          <t>kernel_initializer  (VarianceScaling):</t>
+          <t>top-level</t>
         </is>
       </c>
       <c r="D15" s="1" t="inlineStr">
         <is>
-          <t>distribution</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>uniform</t>
-        </is>
-      </c>
+          <t>noise_shape</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
@@ -629,13 +625,11 @@
       <c r="C16" s="1" t="n"/>
       <c r="D16" s="1" t="inlineStr">
         <is>
-          <t>mode</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>fan_avg</t>
-        </is>
+          <t>rate</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="17">
@@ -644,12 +638,10 @@
       <c r="C17" s="1" t="n"/>
       <c r="D17" s="1" t="inlineStr">
         <is>
-          <t>scale</t>
-        </is>
-      </c>
-      <c r="E17" t="n">
-        <v>1</v>
-      </c>
+          <t>seed</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
@@ -657,26 +649,38 @@
       <c r="C18" s="1" t="n"/>
       <c r="D18" s="1" t="inlineStr">
         <is>
-          <t>seed</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr"/>
+          <t>trainable</t>
+        </is>
+      </c>
+      <c r="E18" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n"/>
-      <c r="B19" s="1" t="n"/>
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>2: LSTM</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>lstm_1 (100 units)</t>
+        </is>
+      </c>
       <c r="C19" s="1" t="inlineStr">
         <is>
-          <t>recurrent_initializer  (Orthogonal):</t>
+          <t>kernel_initializer  (VarianceScaling):</t>
         </is>
       </c>
       <c r="D19" s="1" t="inlineStr">
         <is>
-          <t>gain</t>
-        </is>
-      </c>
-      <c r="E19" t="n">
-        <v>1</v>
+          <t>distribution</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>uniform</t>
+        </is>
       </c>
     </row>
     <row r="20">
@@ -685,28 +689,26 @@
       <c r="C20" s="1" t="n"/>
       <c r="D20" s="1" t="inlineStr">
         <is>
-          <t>seed</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr"/>
+          <t>mode</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>fan_avg</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="n"/>
-      <c r="C21" s="1" t="inlineStr">
-        <is>
-          <t>top-level</t>
-        </is>
-      </c>
+      <c r="C21" s="1" t="n"/>
       <c r="D21" s="1" t="inlineStr">
         <is>
-          <t>activation</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>tanh</t>
-        </is>
+          <t>scale</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -715,7 +717,7 @@
       <c r="C22" s="1" t="n"/>
       <c r="D22" s="1" t="inlineStr">
         <is>
-          <t>activity_regularizer</t>
+          <t>seed</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
@@ -723,13 +725,19 @@
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="n"/>
-      <c r="C23" s="1" t="n"/>
+      <c r="C23" s="1" t="inlineStr">
+        <is>
+          <t>kernel_regularizer  (L1L2):</t>
+        </is>
+      </c>
       <c r="D23" s="1" t="inlineStr">
         <is>
-          <t>bias_constraint</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr"/>
+          <t>l1</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
@@ -737,22 +745,28 @@
       <c r="C24" s="1" t="n"/>
       <c r="D24" s="1" t="inlineStr">
         <is>
-          <t>bias_regularizer</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr"/>
+          <t>l2</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>0.009999999776482582</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="n"/>
-      <c r="C25" s="1" t="n"/>
+      <c r="C25" s="1" t="inlineStr">
+        <is>
+          <t>recurrent_initializer  (Orthogonal):</t>
+        </is>
+      </c>
       <c r="D25" s="1" t="inlineStr">
         <is>
-          <t>dropout</t>
+          <t>gain</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -761,24 +775,28 @@
       <c r="C26" s="1" t="n"/>
       <c r="D26" s="1" t="inlineStr">
         <is>
-          <t>go_backwards</t>
-        </is>
-      </c>
-      <c r="E26" t="b">
-        <v>0</v>
-      </c>
+          <t>seed</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n"/>
       <c r="B27" s="1" t="n"/>
-      <c r="C27" s="1" t="n"/>
+      <c r="C27" s="1" t="inlineStr">
+        <is>
+          <t>top-level</t>
+        </is>
+      </c>
       <c r="D27" s="1" t="inlineStr">
         <is>
-          <t>implementation</t>
-        </is>
-      </c>
-      <c r="E27" t="n">
-        <v>1</v>
+          <t>activation</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>tanh</t>
+        </is>
       </c>
     </row>
     <row r="28">
@@ -787,7 +805,7 @@
       <c r="C28" s="1" t="n"/>
       <c r="D28" s="1" t="inlineStr">
         <is>
-          <t>kernel_constraint</t>
+          <t>activity_regularizer</t>
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
@@ -798,7 +816,7 @@
       <c r="C29" s="1" t="n"/>
       <c r="D29" s="1" t="inlineStr">
         <is>
-          <t>kernel_regularizer</t>
+          <t>bias_constraint</t>
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
@@ -809,14 +827,10 @@
       <c r="C30" s="1" t="n"/>
       <c r="D30" s="1" t="inlineStr">
         <is>
-          <t>recurrent_activation</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>hard_sigmoid</t>
-        </is>
-      </c>
+          <t>bias_regularizer</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n"/>
@@ -824,10 +838,12 @@
       <c r="C31" s="1" t="n"/>
       <c r="D31" s="1" t="inlineStr">
         <is>
-          <t>recurrent_constraint</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr"/>
+          <t>dropout</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n"/>
@@ -835,11 +851,11 @@
       <c r="C32" s="1" t="n"/>
       <c r="D32" s="1" t="inlineStr">
         <is>
-          <t>recurrent_dropout</t>
-        </is>
-      </c>
-      <c r="E32" t="n">
-        <v>0.3</v>
+          <t>go_backwards</t>
+        </is>
+      </c>
+      <c r="E32" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -848,10 +864,12 @@
       <c r="C33" s="1" t="n"/>
       <c r="D33" s="1" t="inlineStr">
         <is>
-          <t>recurrent_regularizer</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr"/>
+          <t>implementation</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n"/>
@@ -859,12 +877,10 @@
       <c r="C34" s="1" t="n"/>
       <c r="D34" s="1" t="inlineStr">
         <is>
-          <t>return_sequences</t>
-        </is>
-      </c>
-      <c r="E34" t="b">
-        <v>0</v>
-      </c>
+          <t>kernel_constraint</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n"/>
@@ -872,11 +888,13 @@
       <c r="C35" s="1" t="n"/>
       <c r="D35" s="1" t="inlineStr">
         <is>
-          <t>return_state</t>
-        </is>
-      </c>
-      <c r="E35" t="b">
-        <v>0</v>
+          <t>recurrent_activation</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>hard_sigmoid</t>
+        </is>
       </c>
     </row>
     <row r="36">
@@ -885,12 +903,10 @@
       <c r="C36" s="1" t="n"/>
       <c r="D36" s="1" t="inlineStr">
         <is>
-          <t>stateful</t>
-        </is>
-      </c>
-      <c r="E36" t="b">
-        <v>0</v>
-      </c>
+          <t>recurrent_constraint</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n"/>
@@ -898,11 +914,11 @@
       <c r="C37" s="1" t="n"/>
       <c r="D37" s="1" t="inlineStr">
         <is>
-          <t>trainable</t>
-        </is>
-      </c>
-      <c r="E37" t="b">
-        <v>1</v>
+          <t>recurrent_dropout</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="38">
@@ -911,12 +927,10 @@
       <c r="C38" s="1" t="n"/>
       <c r="D38" s="1" t="inlineStr">
         <is>
-          <t>unit_forget_bias</t>
-        </is>
-      </c>
-      <c r="E38" t="b">
-        <v>1</v>
-      </c>
+          <t>recurrent_regularizer</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n"/>
@@ -924,11 +938,11 @@
       <c r="C39" s="1" t="n"/>
       <c r="D39" s="1" t="inlineStr">
         <is>
-          <t>units</t>
-        </is>
-      </c>
-      <c r="E39" t="n">
-        <v>200</v>
+          <t>return_sequences</t>
+        </is>
+      </c>
+      <c r="E39" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -937,7 +951,7 @@
       <c r="C40" s="1" t="n"/>
       <c r="D40" s="1" t="inlineStr">
         <is>
-          <t>unroll</t>
+          <t>return_state</t>
         </is>
       </c>
       <c r="E40" t="b">
@@ -950,38 +964,24 @@
       <c r="C41" s="1" t="n"/>
       <c r="D41" s="1" t="inlineStr">
         <is>
-          <t>use_bias</t>
+          <t>stateful</t>
         </is>
       </c>
       <c r="E41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n"/>
+      <c r="B42" s="1" t="n"/>
+      <c r="C42" s="1" t="n"/>
+      <c r="D42" s="1" t="inlineStr">
+        <is>
+          <t>trainable</t>
+        </is>
+      </c>
+      <c r="E42" t="b">
         <v>1</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="inlineStr">
-        <is>
-          <t>2: Dense</t>
-        </is>
-      </c>
-      <c r="B42" s="1" t="inlineStr">
-        <is>
-          <t>dense_21 (1 units)</t>
-        </is>
-      </c>
-      <c r="C42" s="1" t="inlineStr">
-        <is>
-          <t>kernel_initializer  (VarianceScaling):</t>
-        </is>
-      </c>
-      <c r="D42" s="1" t="inlineStr">
-        <is>
-          <t>distribution</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>uniform</t>
-        </is>
       </c>
     </row>
     <row r="43">
@@ -990,13 +990,11 @@
       <c r="C43" s="1" t="n"/>
       <c r="D43" s="1" t="inlineStr">
         <is>
-          <t>mode</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>fan_avg</t>
-        </is>
+          <t>unit_forget_bias</t>
+        </is>
+      </c>
+      <c r="E43" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -1005,11 +1003,11 @@
       <c r="C44" s="1" t="n"/>
       <c r="D44" s="1" t="inlineStr">
         <is>
-          <t>scale</t>
+          <t>units</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="45">
@@ -1018,40 +1016,52 @@
       <c r="C45" s="1" t="n"/>
       <c r="D45" s="1" t="inlineStr">
         <is>
-          <t>seed</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr"/>
+          <t>unroll</t>
+        </is>
+      </c>
+      <c r="E45" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n"/>
       <c r="B46" s="1" t="n"/>
-      <c r="C46" s="1" t="inlineStr">
-        <is>
-          <t>top-level</t>
-        </is>
-      </c>
+      <c r="C46" s="1" t="n"/>
       <c r="D46" s="1" t="inlineStr">
         <is>
-          <t>activation</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>sigmoid</t>
-        </is>
+          <t>use_bias</t>
+        </is>
+      </c>
+      <c r="E46" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="n"/>
-      <c r="B47" s="1" t="n"/>
-      <c r="C47" s="1" t="n"/>
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>3: LSTM</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>lstm_2 (100 units)</t>
+        </is>
+      </c>
+      <c r="C47" s="1" t="inlineStr">
+        <is>
+          <t>kernel_initializer  (VarianceScaling):</t>
+        </is>
+      </c>
       <c r="D47" s="1" t="inlineStr">
         <is>
-          <t>activity_regularizer</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr"/>
+          <t>distribution</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>uniform</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n"/>
@@ -1059,10 +1069,14 @@
       <c r="C48" s="1" t="n"/>
       <c r="D48" s="1" t="inlineStr">
         <is>
-          <t>bias_constraint</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr"/>
+          <t>mode</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>fan_avg</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n"/>
@@ -1070,10 +1084,12 @@
       <c r="C49" s="1" t="n"/>
       <c r="D49" s="1" t="inlineStr">
         <is>
-          <t>bias_regularizer</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr"/>
+          <t>scale</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n"/>
@@ -1081,7 +1097,7 @@
       <c r="C50" s="1" t="n"/>
       <c r="D50" s="1" t="inlineStr">
         <is>
-          <t>kernel_constraint</t>
+          <t>seed</t>
         </is>
       </c>
       <c r="E50" t="inlineStr"/>
@@ -1089,13 +1105,19 @@
     <row r="51">
       <c r="A51" s="1" t="n"/>
       <c r="B51" s="1" t="n"/>
-      <c r="C51" s="1" t="n"/>
+      <c r="C51" s="1" t="inlineStr">
+        <is>
+          <t>kernel_regularizer  (L1L2):</t>
+        </is>
+      </c>
       <c r="D51" s="1" t="inlineStr">
         <is>
-          <t>kernel_regularizer</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr"/>
+          <t>l1</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n"/>
@@ -1103,20 +1125,24 @@
       <c r="C52" s="1" t="n"/>
       <c r="D52" s="1" t="inlineStr">
         <is>
-          <t>trainable</t>
-        </is>
-      </c>
-      <c r="E52" t="b">
-        <v>1</v>
+          <t>l2</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>0.009999999776482582</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n"/>
       <c r="B53" s="1" t="n"/>
-      <c r="C53" s="1" t="n"/>
+      <c r="C53" s="1" t="inlineStr">
+        <is>
+          <t>recurrent_initializer  (Orthogonal):</t>
+        </is>
+      </c>
       <c r="D53" s="1" t="inlineStr">
         <is>
-          <t>units</t>
+          <t>gain</t>
         </is>
       </c>
       <c r="E53" t="n">
@@ -1129,28 +1155,471 @@
       <c r="C54" s="1" t="n"/>
       <c r="D54" s="1" t="inlineStr">
         <is>
+          <t>seed</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n"/>
+      <c r="B55" s="1" t="n"/>
+      <c r="C55" s="1" t="inlineStr">
+        <is>
+          <t>top-level</t>
+        </is>
+      </c>
+      <c r="D55" s="1" t="inlineStr">
+        <is>
+          <t>activation</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>tanh</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n"/>
+      <c r="B56" s="1" t="n"/>
+      <c r="C56" s="1" t="n"/>
+      <c r="D56" s="1" t="inlineStr">
+        <is>
+          <t>activity_regularizer</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n"/>
+      <c r="B57" s="1" t="n"/>
+      <c r="C57" s="1" t="n"/>
+      <c r="D57" s="1" t="inlineStr">
+        <is>
+          <t>bias_constraint</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n"/>
+      <c r="B58" s="1" t="n"/>
+      <c r="C58" s="1" t="n"/>
+      <c r="D58" s="1" t="inlineStr">
+        <is>
+          <t>bias_regularizer</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n"/>
+      <c r="B59" s="1" t="n"/>
+      <c r="C59" s="1" t="n"/>
+      <c r="D59" s="1" t="inlineStr">
+        <is>
+          <t>dropout</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n"/>
+      <c r="B60" s="1" t="n"/>
+      <c r="C60" s="1" t="n"/>
+      <c r="D60" s="1" t="inlineStr">
+        <is>
+          <t>go_backwards</t>
+        </is>
+      </c>
+      <c r="E60" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n"/>
+      <c r="B61" s="1" t="n"/>
+      <c r="C61" s="1" t="n"/>
+      <c r="D61" s="1" t="inlineStr">
+        <is>
+          <t>implementation</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n"/>
+      <c r="B62" s="1" t="n"/>
+      <c r="C62" s="1" t="n"/>
+      <c r="D62" s="1" t="inlineStr">
+        <is>
+          <t>kernel_constraint</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n"/>
+      <c r="B63" s="1" t="n"/>
+      <c r="C63" s="1" t="n"/>
+      <c r="D63" s="1" t="inlineStr">
+        <is>
+          <t>recurrent_activation</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>hard_sigmoid</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n"/>
+      <c r="B64" s="1" t="n"/>
+      <c r="C64" s="1" t="n"/>
+      <c r="D64" s="1" t="inlineStr">
+        <is>
+          <t>recurrent_constraint</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n"/>
+      <c r="B65" s="1" t="n"/>
+      <c r="C65" s="1" t="n"/>
+      <c r="D65" s="1" t="inlineStr">
+        <is>
+          <t>recurrent_dropout</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n"/>
+      <c r="B66" s="1" t="n"/>
+      <c r="C66" s="1" t="n"/>
+      <c r="D66" s="1" t="inlineStr">
+        <is>
+          <t>recurrent_regularizer</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n"/>
+      <c r="B67" s="1" t="n"/>
+      <c r="C67" s="1" t="n"/>
+      <c r="D67" s="1" t="inlineStr">
+        <is>
+          <t>return_sequences</t>
+        </is>
+      </c>
+      <c r="E67" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n"/>
+      <c r="B68" s="1" t="n"/>
+      <c r="C68" s="1" t="n"/>
+      <c r="D68" s="1" t="inlineStr">
+        <is>
+          <t>return_state</t>
+        </is>
+      </c>
+      <c r="E68" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n"/>
+      <c r="B69" s="1" t="n"/>
+      <c r="C69" s="1" t="n"/>
+      <c r="D69" s="1" t="inlineStr">
+        <is>
+          <t>stateful</t>
+        </is>
+      </c>
+      <c r="E69" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n"/>
+      <c r="B70" s="1" t="n"/>
+      <c r="C70" s="1" t="n"/>
+      <c r="D70" s="1" t="inlineStr">
+        <is>
+          <t>trainable</t>
+        </is>
+      </c>
+      <c r="E70" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n"/>
+      <c r="B71" s="1" t="n"/>
+      <c r="C71" s="1" t="n"/>
+      <c r="D71" s="1" t="inlineStr">
+        <is>
+          <t>unit_forget_bias</t>
+        </is>
+      </c>
+      <c r="E71" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n"/>
+      <c r="B72" s="1" t="n"/>
+      <c r="C72" s="1" t="n"/>
+      <c r="D72" s="1" t="inlineStr">
+        <is>
+          <t>units</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n"/>
+      <c r="B73" s="1" t="n"/>
+      <c r="C73" s="1" t="n"/>
+      <c r="D73" s="1" t="inlineStr">
+        <is>
+          <t>unroll</t>
+        </is>
+      </c>
+      <c r="E73" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n"/>
+      <c r="B74" s="1" t="n"/>
+      <c r="C74" s="1" t="n"/>
+      <c r="D74" s="1" t="inlineStr">
+        <is>
           <t>use_bias</t>
         </is>
       </c>
-      <c r="E54" t="b">
+      <c r="E74" t="b">
         <v>1</v>
       </c>
     </row>
+    <row r="75">
+      <c r="A75" s="1" t="inlineStr">
+        <is>
+          <t>4: Dense</t>
+        </is>
+      </c>
+      <c r="B75" s="1" t="inlineStr">
+        <is>
+          <t>dense_1 (3 units)</t>
+        </is>
+      </c>
+      <c r="C75" s="1" t="inlineStr">
+        <is>
+          <t>kernel_initializer  (VarianceScaling):</t>
+        </is>
+      </c>
+      <c r="D75" s="1" t="inlineStr">
+        <is>
+          <t>distribution</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>uniform</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n"/>
+      <c r="B76" s="1" t="n"/>
+      <c r="C76" s="1" t="n"/>
+      <c r="D76" s="1" t="inlineStr">
+        <is>
+          <t>mode</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>fan_avg</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n"/>
+      <c r="B77" s="1" t="n"/>
+      <c r="C77" s="1" t="n"/>
+      <c r="D77" s="1" t="inlineStr">
+        <is>
+          <t>scale</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n"/>
+      <c r="B78" s="1" t="n"/>
+      <c r="C78" s="1" t="n"/>
+      <c r="D78" s="1" t="inlineStr">
+        <is>
+          <t>seed</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n"/>
+      <c r="B79" s="1" t="n"/>
+      <c r="C79" s="1" t="inlineStr">
+        <is>
+          <t>top-level</t>
+        </is>
+      </c>
+      <c r="D79" s="1" t="inlineStr">
+        <is>
+          <t>activation</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>softmax</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n"/>
+      <c r="B80" s="1" t="n"/>
+      <c r="C80" s="1" t="n"/>
+      <c r="D80" s="1" t="inlineStr">
+        <is>
+          <t>activity_regularizer</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n"/>
+      <c r="B81" s="1" t="n"/>
+      <c r="C81" s="1" t="n"/>
+      <c r="D81" s="1" t="inlineStr">
+        <is>
+          <t>bias_constraint</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n"/>
+      <c r="B82" s="1" t="n"/>
+      <c r="C82" s="1" t="n"/>
+      <c r="D82" s="1" t="inlineStr">
+        <is>
+          <t>bias_regularizer</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n"/>
+      <c r="B83" s="1" t="n"/>
+      <c r="C83" s="1" t="n"/>
+      <c r="D83" s="1" t="inlineStr">
+        <is>
+          <t>kernel_constraint</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n"/>
+      <c r="B84" s="1" t="n"/>
+      <c r="C84" s="1" t="n"/>
+      <c r="D84" s="1" t="inlineStr">
+        <is>
+          <t>kernel_regularizer</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n"/>
+      <c r="B85" s="1" t="n"/>
+      <c r="C85" s="1" t="n"/>
+      <c r="D85" s="1" t="inlineStr">
+        <is>
+          <t>trainable</t>
+        </is>
+      </c>
+      <c r="E85" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n"/>
+      <c r="B86" s="1" t="n"/>
+      <c r="C86" s="1" t="n"/>
+      <c r="D86" s="1" t="inlineStr">
+        <is>
+          <t>units</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n"/>
+      <c r="B87" s="1" t="n"/>
+      <c r="C87" s="1" t="n"/>
+      <c r="D87" s="1" t="inlineStr">
+        <is>
+          <t>use_bias</t>
+        </is>
+      </c>
+      <c r="E87" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="23">
     <mergeCell ref="A2:A14"/>
-    <mergeCell ref="A15:A41"/>
-    <mergeCell ref="A42:A54"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A19:A46"/>
+    <mergeCell ref="A47:A74"/>
+    <mergeCell ref="A75:A87"/>
     <mergeCell ref="B2:B14"/>
-    <mergeCell ref="B15:B41"/>
-    <mergeCell ref="B42:B54"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="B19:B46"/>
+    <mergeCell ref="B47:B74"/>
+    <mergeCell ref="B75:B87"/>
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="C5:C14"/>
     <mergeCell ref="C15:C18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C41"/>
-    <mergeCell ref="C42:C45"/>
-    <mergeCell ref="C46:C54"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C27:C46"/>
+    <mergeCell ref="C47:C50"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="C55:C74"/>
+    <mergeCell ref="C75:C78"/>
+    <mergeCell ref="C79:C87"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/models/best_final/nlp_classifier_model_model_layers.xlsx
+++ b/models/best_final/nlp_classifier_model_model_layers.xlsx
@@ -379,7 +379,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E87"/>
+  <dimension ref="A1:E59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -422,7 +422,7 @@
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>embedding_1 
+          <t>embedding_10 
 (35 words, 300)</t>
         </is>
       </c>
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5240</v>
+        <v>6013</v>
       </c>
     </row>
     <row r="11">
@@ -604,7 +604,7 @@
       </c>
       <c r="B15" s="1" t="inlineStr">
         <is>
-          <t>spatial_dropout1d_1</t>
+          <t>spatial_dropout1d_9</t>
         </is>
       </c>
       <c r="C15" s="1" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B19" s="1" t="inlineStr">
         <is>
-          <t>lstm_1 (100 units)</t>
+          <t>lstm_11 (100 units)</t>
         </is>
       </c>
       <c r="C19" s="1" t="inlineStr">
@@ -749,7 +749,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.009999999776482582</v>
+        <v>0.001000000047497451</v>
       </c>
     </row>
     <row r="25">
@@ -842,7 +842,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="32">
@@ -918,7 +918,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="38">
@@ -942,7 +942,7 @@
         </is>
       </c>
       <c r="E39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1039,12 +1039,12 @@
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>3: LSTM</t>
+          <t>3: Dense</t>
         </is>
       </c>
       <c r="B47" s="1" t="inlineStr">
         <is>
-          <t>lstm_2 (100 units)</t>
+          <t>dense_10 (3 units)</t>
         </is>
       </c>
       <c r="C47" s="1" t="inlineStr">
@@ -1107,16 +1107,18 @@
       <c r="B51" s="1" t="n"/>
       <c r="C51" s="1" t="inlineStr">
         <is>
-          <t>kernel_regularizer  (L1L2):</t>
+          <t>top-level</t>
         </is>
       </c>
       <c r="D51" s="1" t="inlineStr">
         <is>
-          <t>l1</t>
-        </is>
-      </c>
-      <c r="E51" t="n">
-        <v>0</v>
+          <t>activation</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>softmax</t>
+        </is>
       </c>
     </row>
     <row r="52">
@@ -1125,29 +1127,21 @@
       <c r="C52" s="1" t="n"/>
       <c r="D52" s="1" t="inlineStr">
         <is>
-          <t>l2</t>
-        </is>
-      </c>
-      <c r="E52" t="n">
-        <v>0.009999999776482582</v>
-      </c>
+          <t>activity_regularizer</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n"/>
       <c r="B53" s="1" t="n"/>
-      <c r="C53" s="1" t="inlineStr">
-        <is>
-          <t>recurrent_initializer  (Orthogonal):</t>
-        </is>
-      </c>
+      <c r="C53" s="1" t="n"/>
       <c r="D53" s="1" t="inlineStr">
         <is>
-          <t>gain</t>
-        </is>
-      </c>
-      <c r="E53" t="n">
-        <v>1</v>
-      </c>
+          <t>bias_constraint</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n"/>
@@ -1155,7 +1149,7 @@
       <c r="C54" s="1" t="n"/>
       <c r="D54" s="1" t="inlineStr">
         <is>
-          <t>seed</t>
+          <t>bias_regularizer</t>
         </is>
       </c>
       <c r="E54" t="inlineStr"/>
@@ -1163,21 +1157,13 @@
     <row r="55">
       <c r="A55" s="1" t="n"/>
       <c r="B55" s="1" t="n"/>
-      <c r="C55" s="1" t="inlineStr">
-        <is>
-          <t>top-level</t>
-        </is>
-      </c>
+      <c r="C55" s="1" t="n"/>
       <c r="D55" s="1" t="inlineStr">
         <is>
-          <t>activation</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>tanh</t>
-        </is>
-      </c>
+          <t>kernel_constraint</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n"/>
@@ -1185,7 +1171,7 @@
       <c r="C56" s="1" t="n"/>
       <c r="D56" s="1" t="inlineStr">
         <is>
-          <t>activity_regularizer</t>
+          <t>kernel_regularizer</t>
         </is>
       </c>
       <c r="E56" t="inlineStr"/>
@@ -1196,10 +1182,12 @@
       <c r="C57" s="1" t="n"/>
       <c r="D57" s="1" t="inlineStr">
         <is>
-          <t>bias_constraint</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr"/>
+          <t>trainable</t>
+        </is>
+      </c>
+      <c r="E57" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n"/>
@@ -1207,10 +1195,12 @@
       <c r="C58" s="1" t="n"/>
       <c r="D58" s="1" t="inlineStr">
         <is>
-          <t>bias_regularizer</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr"/>
+          <t>units</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n"/>
@@ -1218,395 +1208,23 @@
       <c r="C59" s="1" t="n"/>
       <c r="D59" s="1" t="inlineStr">
         <is>
-          <t>dropout</t>
-        </is>
-      </c>
-      <c r="E59" t="n">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n"/>
-      <c r="B60" s="1" t="n"/>
-      <c r="C60" s="1" t="n"/>
-      <c r="D60" s="1" t="inlineStr">
-        <is>
-          <t>go_backwards</t>
-        </is>
-      </c>
-      <c r="E60" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n"/>
-      <c r="B61" s="1" t="n"/>
-      <c r="C61" s="1" t="n"/>
-      <c r="D61" s="1" t="inlineStr">
-        <is>
-          <t>implementation</t>
-        </is>
-      </c>
-      <c r="E61" t="n">
+          <t>use_bias</t>
+        </is>
+      </c>
+      <c r="E59" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="1" t="n"/>
-      <c r="B62" s="1" t="n"/>
-      <c r="C62" s="1" t="n"/>
-      <c r="D62" s="1" t="inlineStr">
-        <is>
-          <t>kernel_constraint</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n"/>
-      <c r="B63" s="1" t="n"/>
-      <c r="C63" s="1" t="n"/>
-      <c r="D63" s="1" t="inlineStr">
-        <is>
-          <t>recurrent_activation</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>hard_sigmoid</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n"/>
-      <c r="B64" s="1" t="n"/>
-      <c r="C64" s="1" t="n"/>
-      <c r="D64" s="1" t="inlineStr">
-        <is>
-          <t>recurrent_constraint</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n"/>
-      <c r="B65" s="1" t="n"/>
-      <c r="C65" s="1" t="n"/>
-      <c r="D65" s="1" t="inlineStr">
-        <is>
-          <t>recurrent_dropout</t>
-        </is>
-      </c>
-      <c r="E65" t="n">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n"/>
-      <c r="B66" s="1" t="n"/>
-      <c r="C66" s="1" t="n"/>
-      <c r="D66" s="1" t="inlineStr">
-        <is>
-          <t>recurrent_regularizer</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n"/>
-      <c r="B67" s="1" t="n"/>
-      <c r="C67" s="1" t="n"/>
-      <c r="D67" s="1" t="inlineStr">
-        <is>
-          <t>return_sequences</t>
-        </is>
-      </c>
-      <c r="E67" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n"/>
-      <c r="B68" s="1" t="n"/>
-      <c r="C68" s="1" t="n"/>
-      <c r="D68" s="1" t="inlineStr">
-        <is>
-          <t>return_state</t>
-        </is>
-      </c>
-      <c r="E68" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n"/>
-      <c r="B69" s="1" t="n"/>
-      <c r="C69" s="1" t="n"/>
-      <c r="D69" s="1" t="inlineStr">
-        <is>
-          <t>stateful</t>
-        </is>
-      </c>
-      <c r="E69" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n"/>
-      <c r="B70" s="1" t="n"/>
-      <c r="C70" s="1" t="n"/>
-      <c r="D70" s="1" t="inlineStr">
-        <is>
-          <t>trainable</t>
-        </is>
-      </c>
-      <c r="E70" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n"/>
-      <c r="B71" s="1" t="n"/>
-      <c r="C71" s="1" t="n"/>
-      <c r="D71" s="1" t="inlineStr">
-        <is>
-          <t>unit_forget_bias</t>
-        </is>
-      </c>
-      <c r="E71" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n"/>
-      <c r="B72" s="1" t="n"/>
-      <c r="C72" s="1" t="n"/>
-      <c r="D72" s="1" t="inlineStr">
-        <is>
-          <t>units</t>
-        </is>
-      </c>
-      <c r="E72" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n"/>
-      <c r="B73" s="1" t="n"/>
-      <c r="C73" s="1" t="n"/>
-      <c r="D73" s="1" t="inlineStr">
-        <is>
-          <t>unroll</t>
-        </is>
-      </c>
-      <c r="E73" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n"/>
-      <c r="B74" s="1" t="n"/>
-      <c r="C74" s="1" t="n"/>
-      <c r="D74" s="1" t="inlineStr">
-        <is>
-          <t>use_bias</t>
-        </is>
-      </c>
-      <c r="E74" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="inlineStr">
-        <is>
-          <t>4: Dense</t>
-        </is>
-      </c>
-      <c r="B75" s="1" t="inlineStr">
-        <is>
-          <t>dense_1 (3 units)</t>
-        </is>
-      </c>
-      <c r="C75" s="1" t="inlineStr">
-        <is>
-          <t>kernel_initializer  (VarianceScaling):</t>
-        </is>
-      </c>
-      <c r="D75" s="1" t="inlineStr">
-        <is>
-          <t>distribution</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>uniform</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n"/>
-      <c r="B76" s="1" t="n"/>
-      <c r="C76" s="1" t="n"/>
-      <c r="D76" s="1" t="inlineStr">
-        <is>
-          <t>mode</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>fan_avg</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n"/>
-      <c r="B77" s="1" t="n"/>
-      <c r="C77" s="1" t="n"/>
-      <c r="D77" s="1" t="inlineStr">
-        <is>
-          <t>scale</t>
-        </is>
-      </c>
-      <c r="E77" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n"/>
-      <c r="B78" s="1" t="n"/>
-      <c r="C78" s="1" t="n"/>
-      <c r="D78" s="1" t="inlineStr">
-        <is>
-          <t>seed</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n"/>
-      <c r="B79" s="1" t="n"/>
-      <c r="C79" s="1" t="inlineStr">
-        <is>
-          <t>top-level</t>
-        </is>
-      </c>
-      <c r="D79" s="1" t="inlineStr">
-        <is>
-          <t>activation</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>softmax</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n"/>
-      <c r="B80" s="1" t="n"/>
-      <c r="C80" s="1" t="n"/>
-      <c r="D80" s="1" t="inlineStr">
-        <is>
-          <t>activity_regularizer</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n"/>
-      <c r="B81" s="1" t="n"/>
-      <c r="C81" s="1" t="n"/>
-      <c r="D81" s="1" t="inlineStr">
-        <is>
-          <t>bias_constraint</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n"/>
-      <c r="B82" s="1" t="n"/>
-      <c r="C82" s="1" t="n"/>
-      <c r="D82" s="1" t="inlineStr">
-        <is>
-          <t>bias_regularizer</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n"/>
-      <c r="B83" s="1" t="n"/>
-      <c r="C83" s="1" t="n"/>
-      <c r="D83" s="1" t="inlineStr">
-        <is>
-          <t>kernel_constraint</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n"/>
-      <c r="B84" s="1" t="n"/>
-      <c r="C84" s="1" t="n"/>
-      <c r="D84" s="1" t="inlineStr">
-        <is>
-          <t>kernel_regularizer</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n"/>
-      <c r="B85" s="1" t="n"/>
-      <c r="C85" s="1" t="n"/>
-      <c r="D85" s="1" t="inlineStr">
-        <is>
-          <t>trainable</t>
-        </is>
-      </c>
-      <c r="E85" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n"/>
-      <c r="B86" s="1" t="n"/>
-      <c r="C86" s="1" t="n"/>
-      <c r="D86" s="1" t="inlineStr">
-        <is>
-          <t>units</t>
-        </is>
-      </c>
-      <c r="E86" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n"/>
-      <c r="B87" s="1" t="n"/>
-      <c r="C87" s="1" t="n"/>
-      <c r="D87" s="1" t="inlineStr">
-        <is>
-          <t>use_bias</t>
-        </is>
-      </c>
-      <c r="E87" t="b">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="17">
     <mergeCell ref="A2:A14"/>
     <mergeCell ref="A15:A18"/>
     <mergeCell ref="A19:A46"/>
-    <mergeCell ref="A47:A74"/>
-    <mergeCell ref="A75:A87"/>
+    <mergeCell ref="A47:A59"/>
     <mergeCell ref="B2:B14"/>
     <mergeCell ref="B15:B18"/>
     <mergeCell ref="B19:B46"/>
-    <mergeCell ref="B47:B74"/>
-    <mergeCell ref="B75:B87"/>
+    <mergeCell ref="B47:B59"/>
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="C5:C14"/>
     <mergeCell ref="C15:C18"/>
@@ -1615,11 +1233,7 @@
     <mergeCell ref="C25:C26"/>
     <mergeCell ref="C27:C46"/>
     <mergeCell ref="C47:C50"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="C55:C74"/>
-    <mergeCell ref="C75:C78"/>
-    <mergeCell ref="C79:C87"/>
+    <mergeCell ref="C51:C59"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
